--- a/utilities/Excel_Sheets/Products/LEXR_TENANT.xlsx
+++ b/utilities/Excel_Sheets/Products/LEXR_TENANT.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -555,13 +555,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -649,7 +649,8 @@
         <v>31</v>
       </c>
       <c r="D2" s="5">
-        <v>42711</v>
+        <f ca="1">TODAY()</f>
+        <v>43147</v>
       </c>
       <c r="E2" s="3" t="b">
         <v>1</v>
@@ -2770,14 +2771,14 @@
       <c r="Q80"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q80"/>
+  <autoFilter ref="A1:Q80" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -4769,7 +4770,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q37"/>
+  <autoFilter ref="A1:Q37" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/utilities/Excel_Sheets/Products/LEXR_TENANT.xlsx
+++ b/utilities/Excel_Sheets/Products/LEXR_TENANT.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
-    <sheet name="Regression_Tests" sheetId="2" r:id="rId2"/>
+    <sheet name="Regression" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Regression_Tests!$A$1:$Q$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Regression!$A$1:$Q$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$Q$80</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -558,7 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
@@ -650,7 +650,7 @@
       </c>
       <c r="D2" s="5">
         <f ca="1">TODAY()</f>
-        <v>43147</v>
+        <v>43262</v>
       </c>
       <c r="E2" s="3" t="b">
         <v>1</v>
@@ -2778,13 +2778,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F72457-4272-43CF-9011-F764BE270939}">
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2872,7 +2872,8 @@
         <v>31</v>
       </c>
       <c r="D2" s="5">
-        <v>43004</v>
+        <f ca="1">TODAY()</f>
+        <v>43262</v>
       </c>
       <c r="E2" s="3" t="b">
         <v>1</v>
@@ -2914,71 +2915,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="5">
-        <v>43004</v>
-      </c>
-      <c r="E3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="4">
-        <v>5</v>
-      </c>
-      <c r="K3" s="4">
-        <v>1</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>100</v>
-      </c>
-      <c r="N3" s="4">
-        <v>100</v>
-      </c>
-      <c r="O3" s="4">
-        <v>100</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="3" spans="1:17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D4" s="5">
-        <v>43004</v>
+        <v>43066</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>1</v>
@@ -3022,16 +2971,16 @@
     </row>
     <row r="5" spans="1:17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="5">
-        <v>43004</v>
+        <v>43066</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>1</v>
@@ -3075,16 +3024,16 @@
     </row>
     <row r="6" spans="1:17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="5">
-        <v>43004</v>
+        <v>43066</v>
       </c>
       <c r="E6" s="3" t="b">
         <v>1</v>
@@ -3128,16 +3077,16 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7" s="5">
-        <v>43004</v>
+        <v>43066</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>1</v>
@@ -3179,18 +3128,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5">
-        <v>43004</v>
+        <v>43066</v>
       </c>
       <c r="E8" s="3" t="b">
         <v>1</v>
@@ -3214,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="4">
         <v>100</v>
@@ -3232,18 +3181,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="5">
-        <v>43004</v>
+        <v>43066</v>
       </c>
       <c r="E9" s="3" t="b">
         <v>1</v>
@@ -3267,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="4">
         <v>100</v>
@@ -3287,16 +3236,16 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="5">
-        <v>43004</v>
+        <v>43066</v>
       </c>
       <c r="E10" s="3" t="b">
         <v>1</v>
@@ -3338,18 +3287,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="5">
-        <v>43004</v>
+        <v>43066</v>
       </c>
       <c r="E11" s="3" t="b">
         <v>1</v>
@@ -3393,16 +3342,16 @@
     </row>
     <row r="12" spans="1:17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="5">
-        <v>43004</v>
+        <v>43066</v>
       </c>
       <c r="E12" s="3" t="b">
         <v>1</v>
@@ -3444,18 +3393,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="5">
-        <v>43004</v>
+        <v>43066</v>
       </c>
       <c r="E13" s="3" t="b">
         <v>1</v>
@@ -3497,71 +3446,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="4">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="5">
+        <v>43066</v>
+      </c>
+      <c r="E14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="4">
+        <v>5</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>100</v>
+      </c>
+      <c r="N14" s="4">
+        <v>100</v>
+      </c>
+      <c r="O14" s="4">
+        <v>100</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="5">
-        <v>43004</v>
-      </c>
-      <c r="E14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="4">
-        <v>5</v>
-      </c>
-      <c r="K14" s="4">
-        <v>1</v>
-      </c>
-      <c r="L14" s="4">
-        <v>1</v>
-      </c>
-      <c r="M14" s="4">
-        <v>100</v>
-      </c>
-      <c r="N14" s="4">
-        <v>100</v>
-      </c>
-      <c r="O14" s="4">
-        <v>100</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="4">
-        <v>2</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="D15" s="5">
-        <v>43004</v>
+        <v>43066</v>
       </c>
       <c r="E15" s="3" t="b">
         <v>1</v>
@@ -3585,7 +3534,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="4">
         <v>100</v>
@@ -3605,16 +3554,16 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="5">
-        <v>43004</v>
+        <v>43066</v>
       </c>
       <c r="E16" s="3" t="b">
         <v>1</v>
@@ -3656,18 +3605,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="5">
-        <v>43004</v>
+        <v>43066</v>
       </c>
       <c r="E17" s="3" t="b">
         <v>1</v>
@@ -3711,16 +3660,16 @@
     </row>
     <row r="18" spans="1:17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="5">
-        <v>43004</v>
+        <v>43066</v>
       </c>
       <c r="E18" s="3" t="b">
         <v>1</v>
@@ -3762,18 +3711,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="5">
-        <v>43004</v>
+        <v>43066</v>
       </c>
       <c r="E19" s="3" t="b">
         <v>1</v>
@@ -3815,18 +3764,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="5">
-        <v>43004</v>
+        <v>43066</v>
       </c>
       <c r="E20" s="3" t="b">
         <v>1</v>
@@ -3850,7 +3799,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="4">
         <v>100</v>
@@ -3868,18 +3817,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="5">
-        <v>43004</v>
+        <v>43066</v>
       </c>
       <c r="E21" s="3" t="b">
         <v>1</v>
@@ -3903,7 +3852,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="4">
         <v>100</v>
@@ -3923,16 +3872,16 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" s="5">
-        <v>43004</v>
+        <v>43066</v>
       </c>
       <c r="E22" s="3" t="b">
         <v>1</v>
@@ -3974,18 +3923,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="5">
-        <v>43004</v>
+        <v>43066</v>
       </c>
       <c r="E23" s="3" t="b">
         <v>1</v>
@@ -4029,16 +3978,16 @@
     </row>
     <row r="24" spans="1:17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="5">
-        <v>43004</v>
+        <v>43066</v>
       </c>
       <c r="E24" s="3" t="b">
         <v>1</v>
@@ -4080,18 +4029,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="5">
-        <v>43004</v>
+        <v>43066</v>
       </c>
       <c r="E25" s="3" t="b">
         <v>1</v>
@@ -4133,71 +4082,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="4">
+        <v>12</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="5">
+        <v>43066</v>
+      </c>
+      <c r="E26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="4">
+        <v>5</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4">
+        <v>100</v>
+      </c>
+      <c r="N26" s="4">
+        <v>100</v>
+      </c>
+      <c r="O26" s="4">
+        <v>100</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="4">
-        <v>1</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="5">
-        <v>43004</v>
-      </c>
-      <c r="E26" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="4">
-        <v>5</v>
-      </c>
-      <c r="K26" s="4">
-        <v>1</v>
-      </c>
-      <c r="L26" s="4">
-        <v>1</v>
-      </c>
-      <c r="M26" s="4">
-        <v>100</v>
-      </c>
-      <c r="N26" s="4">
-        <v>100</v>
-      </c>
-      <c r="O26" s="4">
-        <v>100</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="4">
-        <v>2</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="D27" s="5">
-        <v>43004</v>
+        <v>43066</v>
       </c>
       <c r="E27" s="3" t="b">
         <v>1</v>
@@ -4221,7 +4170,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="4">
         <v>100</v>
@@ -4241,16 +4190,16 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="5">
-        <v>43004</v>
+        <v>43066</v>
       </c>
       <c r="E28" s="3" t="b">
         <v>1</v>
@@ -4292,18 +4241,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="5">
-        <v>43004</v>
+        <v>43066</v>
       </c>
       <c r="E29" s="3" t="b">
         <v>1</v>
@@ -4347,16 +4296,16 @@
     </row>
     <row r="30" spans="1:17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="5">
-        <v>43004</v>
+        <v>43066</v>
       </c>
       <c r="E30" s="3" t="b">
         <v>1</v>
@@ -4398,18 +4347,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" s="5">
-        <v>43004</v>
+        <v>43066</v>
       </c>
       <c r="E31" s="3" t="b">
         <v>1</v>
@@ -4451,18 +4400,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D32" s="5">
-        <v>43004</v>
+        <v>43066</v>
       </c>
       <c r="E32" s="3" t="b">
         <v>1</v>
@@ -4486,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" s="4">
         <v>100</v>
@@ -4504,18 +4453,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" s="5">
-        <v>43004</v>
+        <v>43066</v>
       </c>
       <c r="E33" s="3" t="b">
         <v>1</v>
@@ -4539,7 +4488,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="4">
         <v>100</v>
@@ -4559,16 +4508,16 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" s="5">
-        <v>43004</v>
+        <v>43066</v>
       </c>
       <c r="E34" s="3" t="b">
         <v>1</v>
@@ -4610,18 +4559,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" s="5">
-        <v>43004</v>
+        <v>43066</v>
       </c>
       <c r="E35" s="3" t="b">
         <v>1</v>
@@ -4665,16 +4614,16 @@
     </row>
     <row r="36" spans="1:17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D36" s="5">
-        <v>43004</v>
+        <v>43066</v>
       </c>
       <c r="E36" s="3" t="b">
         <v>1</v>
@@ -4716,18 +4665,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37" s="5">
-        <v>43004</v>
+        <v>43066</v>
       </c>
       <c r="E37" s="3" t="b">
         <v>1</v>
@@ -4769,8 +4718,213 @@
         <v>0</v>
       </c>
     </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="4">
+        <v>12</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="5">
+        <v>43066</v>
+      </c>
+      <c r="E38" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38" s="4">
+        <v>5</v>
+      </c>
+      <c r="K38" s="4">
+        <v>1</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0</v>
+      </c>
+      <c r="M38" s="4">
+        <v>100</v>
+      </c>
+      <c r="N38" s="4">
+        <v>100</v>
+      </c>
+      <c r="O38" s="4">
+        <v>100</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+    </row>
+    <row r="40" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+    </row>
+    <row r="41" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+    </row>
+    <row r="42" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+    </row>
+    <row r="43" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+    </row>
+    <row r="44" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+    </row>
+    <row r="45" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+    </row>
+    <row r="46" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q37" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:Q46" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
